--- a/tmp_client/doc/TMP_EIT_suites/radiant/impl_01_mapar_engine.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/impl_01_mapar_engine.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\TMP_EIT_suites\radiant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{F6466A3E-E8D6-4C17-8754-AC34666D29F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BBPw5sjxCCUVqKqDFh1VvlGl+6jBsyEv58ubpDIjFduKT4EttifNtZLgNn2j4jGi/bvDsFNRyO0+XWiClC3JHw==" workbookSaltValue="FQsz7bLsuDdqgfH6Nya7QA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6300" windowWidth="28830" windowHeight="6240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -23,10 +24,12 @@
     <definedName name="Z_16B2C8B3_13FA_43FB_96C1_3763C72619A6_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
     <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
     <definedName name="Z_935BDBD9_B387_4985_B478_6F8B21CA0B09_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
+    <definedName name="Z_D4930765_A187_4DFB_85FD_30F76CAE5F18_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
     <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
   </definedNames>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Kun Fang - Personal View" guid="{D4930765-A187-4DFB-85FD-30F76CAE5F18}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
     <customWorkbookView name="Cherry (Ying) Xu - Personal View" guid="{935BDBD9-B387-4985-B478-6F8B21CA0B09}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
     <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
     <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="330">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -936,72 +939,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>HDL_physical_attribute</t>
-  </si>
-  <si>
-    <t>HDL_physical_attribute/REGION</t>
-  </si>
-  <si>
-    <t>HDL_physical_attribute/SLEWRATE</t>
-  </si>
-  <si>
-    <t>HDL_physical_attribute/UGROUP</t>
-  </si>
-  <si>
-    <t>MPAR_option</t>
-  </si>
-  <si>
-    <t>MPAR_option/Map_option/Endpoint_2</t>
-  </si>
-  <si>
-    <t>MPAR_option/Map_option/hold_analyze</t>
-  </si>
-  <si>
-    <t>MPAR_option/Map_option/Path_2</t>
-  </si>
-  <si>
-    <t>MPAR_option/Map_option/Signal_cross</t>
-  </si>
-  <si>
-    <t>MPAR_option/Map_option/symbol_cross</t>
-  </si>
-  <si>
-    <t>MPAR_option/Map_option/unclip</t>
-  </si>
-  <si>
-    <t>MPAR_option/PAR_option/diable_hold</t>
-  </si>
-  <si>
-    <t>MPAR_option/PAR_option/disable_TD</t>
-  </si>
-  <si>
-    <t>MPAR_option/PAR_option/endpoint_3</t>
-  </si>
-  <si>
-    <t>MPAR_option/PAR_option/endpoint_5</t>
-  </si>
-  <si>
-    <t>MPAR_option/PAR_option/Timing_option</t>
-  </si>
-  <si>
-    <t>MPAR_report</t>
-  </si>
-  <si>
-    <t>MPAR_report/map_report</t>
-  </si>
-  <si>
-    <t>MPAR_report/par_report</t>
-  </si>
-  <si>
     <t>MPAR_eit1</t>
   </si>
   <si>
@@ -1038,49 +975,97 @@
     <t>hold_correction/hold_correction3</t>
   </si>
   <si>
-    <t>MPAR_option_JEDI</t>
-  </si>
-  <si>
-    <t>MPAR_option_Jedi/Map_option/inferGSR</t>
-  </si>
-  <si>
-    <t>MPAR_option_Jedi/Map_option/o</t>
-  </si>
-  <si>
-    <t>MPAR_option_Jedi/Map_option/xref_sig</t>
-  </si>
-  <si>
-    <t>MPAR_option_Jedi/Par_option/dh</t>
-  </si>
-  <si>
-    <t>MPAR_option_Jedi/Par_option/k</t>
-  </si>
-  <si>
-    <t>MPAR_option_Jedi/Par_option/p</t>
-  </si>
-  <si>
-    <t>MPAR_option_Jedi/Par_option/s</t>
-  </si>
-  <si>
     <t>cmd = --devkit=iCE40UP5K-CM225I</t>
   </si>
   <si>
     <t>cmd = --devkit=iCE40UP5K-SG48I</t>
   </si>
   <si>
-    <t>cmd = --devkit=LIFCL-40-8BG400C --post-process=syn_t.py</t>
-  </si>
-  <si>
-    <t>radiant=ng2_3</t>
-  </si>
-  <si>
-    <t>impl_01_mapar_engine_v2.00</t>
+    <t>01_Map_Option_Strategy/201_Number_of_End_Points</t>
+  </si>
+  <si>
+    <t>01_Map_Option_Strategy/221_Number_of_Paths_Per_EndPoint</t>
+  </si>
+  <si>
+    <t>01_Map_Option_Strategy/251_Speed_for_Hold_Analysis</t>
+  </si>
+  <si>
+    <t>01_Map_Option_Strategy/021_Report_Signal_Cross_Reference</t>
+  </si>
+  <si>
+    <t>01_Map_Option_Strategy/031_Report_Symbol_Cross_Reference</t>
+  </si>
+  <si>
+    <t>01_Map_Option_Strategy/273_Timing_Analysis_Options_Setup_Hold</t>
+  </si>
+  <si>
+    <t>02_PAR_Option_Strategy/001_Disable_Auto_Hold_Timing_Correction</t>
+  </si>
+  <si>
+    <t>02_PAR_Option_Strategy/011_Disable_Timing_Driven</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>02_PAR_Option_Strategy/201_Number_of_End_Points</t>
+  </si>
+  <si>
+    <t>02_PAR_Option_Strategy/221_Number_of_Paths_Per_EndPoint</t>
+  </si>
+  <si>
+    <t>02_PAR_Option_Strategy/273_Timing_Analysis_Options_Setup_Hold</t>
+  </si>
+  <si>
+    <t>07_MPAR_Flow/001_Report_Format_mrp</t>
+  </si>
+  <si>
+    <t>07_MPAR_Flow/011_Report_Format_par</t>
+  </si>
+  <si>
+    <t>MPAR_Flow</t>
+  </si>
+  <si>
+    <t>CMD_Command</t>
+  </si>
+  <si>
+    <t>05_Map_CMD_Command/011_inferGSR</t>
+  </si>
+  <si>
+    <t>05_Map_CMD_Command/021_o</t>
+  </si>
+  <si>
+    <t>05_Map_CMD_Command/041_xref_sig</t>
+  </si>
+  <si>
+    <t>06_PAR_CMD_Command/051_s</t>
+  </si>
+  <si>
+    <t>06_PAR_CMD_Command/081_p</t>
+  </si>
+  <si>
+    <t>06_PAR_CMD_Command/101_k</t>
+  </si>
+  <si>
+    <t>06_PAR_CMD_Command/151_dh</t>
+  </si>
+  <si>
+    <t>radiant=sd_ng3_2p.18</t>
+  </si>
+  <si>
+    <t>cmd = --check-conf=impl.conf --post-process=syn_t.py</t>
+  </si>
+  <si>
+    <t>cmd = --check-conf=impl.conf --run-export-bitstream</t>
+  </si>
+  <si>
+    <t>impl_01_mapar_engine_v2.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00_ "/>
     <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
@@ -2513,19 +2498,19 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink 2" xfId="49"/>
+    <cellStyle name="Hyperlink 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="41"/>
-    <cellStyle name="Normal 2 2" xfId="47"/>
-    <cellStyle name="Normal 3" xfId="44"/>
-    <cellStyle name="Normal 4" xfId="45"/>
-    <cellStyle name="Normal 5" xfId="46"/>
-    <cellStyle name="Normal 6" xfId="43"/>
-    <cellStyle name="Normal 6 2" xfId="48"/>
-    <cellStyle name="Note 2" xfId="42"/>
+    <cellStyle name="Normal 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 4" xfId="45" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 5" xfId="46" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 6" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 6 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Note 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
@@ -2561,7 +2546,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4677,7 +4668,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4732,7 +4729,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Add Test Case - TestRail - Mozilla Firefox"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Add Test Case - TestRail - Mozilla Firefox">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4777,7 +4780,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4896,7 +4905,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4943,7 +4958,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4979,7 +5000,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{183E2D17-53D4-4075-993A-E59C584E204E}" diskRevisions="1" revisionId="164" version="5">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{269D2C2A-931E-45DB-A665-801146CA6E48}" diskRevisions="1" revisionId="303" version="24">
   <header guid="{EF406D44-8062-40DE-A000-69E56EC874B5}" dateTime="2020-10-15T13:42:26" maxSheetId="5" userName="Jason Wang" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -5020,6 +5041,158 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{F4F6B10F-58E2-49E3-9E75-9F8FB3323C2E}" dateTime="2022-07-08T10:44:49" maxSheetId="5" userName="Kun Fang" r:id="rId6" minRId="165" maxRId="173">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{83FB7555-ABB2-43DA-9ADE-7362E60B7D66}" dateTime="2022-07-08T10:45:25" maxSheetId="5" userName="Kun Fang" r:id="rId7" minRId="175" maxRId="178">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8AFBD42E-BDB2-4EB2-BBEF-3534F30D23E6}" dateTime="2022-07-08T10:46:41" maxSheetId="5" userName="Kun Fang" r:id="rId8" minRId="179" maxRId="191">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C2244915-298F-49D1-BAED-DADDBAE30678}" dateTime="2022-07-08T10:47:31" maxSheetId="5" userName="Kun Fang" r:id="rId9" minRId="192" maxRId="194">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4B0FA9D8-B10F-4C41-AA10-DB6CC1D3D90B}" dateTime="2022-07-08T10:47:52" maxSheetId="5" userName="Kun Fang" r:id="rId10" minRId="195" maxRId="198">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B8FD5BFD-5C68-4B5C-A1AC-6DF57F823F26}" dateTime="2022-07-08T10:48:22" maxSheetId="5" userName="Kun Fang" r:id="rId11" minRId="199" maxRId="211">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3ECBF782-B348-44AB-979E-C87E0CAC1413}" dateTime="2022-07-08T10:49:14" maxSheetId="5" userName="Kun Fang" r:id="rId12" minRId="212" maxRId="218">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C0906293-0EDB-4BCA-9F88-FD13E0C96B0B}" dateTime="2022-07-08T10:50:07" maxSheetId="5" userName="Kun Fang" r:id="rId13" minRId="219" maxRId="225">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D0B72F68-5010-4673-9F9E-8F7351C5E431}" dateTime="2022-07-08T10:51:08" maxSheetId="5" userName="Kun Fang" r:id="rId14" minRId="226" maxRId="232">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A4137087-45DE-4987-BC85-F6E8FF7E6FAD}" dateTime="2022-07-08T10:52:10" maxSheetId="5" userName="Kun Fang" r:id="rId15" minRId="233" maxRId="262">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9F7556EF-8EA5-4651-A939-897B34EEF587}" dateTime="2022-07-08T10:52:52" maxSheetId="5" userName="Kun Fang" r:id="rId16" minRId="263" maxRId="264">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{73D265A1-0459-4735-A2E7-5C3D23612AE9}" dateTime="2022-07-08T10:53:07" maxSheetId="5" userName="Kun Fang" r:id="rId17" minRId="266">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BD678D32-B5EE-48F5-8F9E-9EC93DBB5CCE}" dateTime="2022-07-08T11:03:28" maxSheetId="5" userName="Kun Fang" r:id="rId18" minRId="267" maxRId="277">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B122948D-A288-4528-9A72-F2DA0B4F5E02}" dateTime="2022-07-08T11:04:02" maxSheetId="5" userName="Kun Fang" r:id="rId19" minRId="278" maxRId="279">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{82A9C59A-D0E7-4992-A65B-44EB83652970}" dateTime="2022-07-08T11:04:50" maxSheetId="5" userName="Kun Fang" r:id="rId20" minRId="280" maxRId="286">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{169A7E96-B152-4FEE-AC4D-F5A5708ABAB6}" dateTime="2022-07-08T11:06:23" maxSheetId="5" userName="Kun Fang" r:id="rId21">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{66ACAAC1-9E2F-473F-BA94-BA145EDCE205}" dateTime="2022-07-08T11:13:26" maxSheetId="5" userName="Kun Fang" r:id="rId22" minRId="288" maxRId="300">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{516C3536-0D48-43B6-A712-AAD538C232B6}" dateTime="2022-07-08T11:19:21" maxSheetId="5" userName="Kun Fang" r:id="rId23" minRId="301" maxRId="302">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{269D2C2A-931E-45DB-A665-801146CA6E48}" dateTime="2022-07-08T16:31:17" maxSheetId="5" userName="Jason Wang" r:id="rId24" minRId="303">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -5027,6 +5200,1025 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="195" sId="2">
+    <oc r="E14" t="inlineStr">
+      <is>
+        <t>MPAR_report/map_report</t>
+      </is>
+    </oc>
+    <nc r="E14" t="inlineStr">
+      <is>
+        <t>07_MPAR_Flow/001_Report_Format_mrp</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="196" sId="2">
+    <oc r="E15" t="inlineStr">
+      <is>
+        <t>MPAR_report/par_report</t>
+      </is>
+    </oc>
+    <nc r="E15" t="inlineStr">
+      <is>
+        <t>07_MPAR_Flow/011_Report_Format_par</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="197" sId="2">
+    <oc r="D14" t="inlineStr">
+      <is>
+        <t>MPAR_report</t>
+      </is>
+    </oc>
+    <nc r="D14" t="inlineStr">
+      <is>
+        <t>MPAR_Flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="198" sId="2">
+    <oc r="D15" t="inlineStr">
+      <is>
+        <t>MPAR_report</t>
+      </is>
+    </oc>
+    <nc r="D15" t="inlineStr">
+      <is>
+        <t>MPAR_Flow</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="199" sId="2">
+    <oc r="O3" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+      </is>
+    </oc>
+    <nc r="O3"/>
+  </rcc>
+  <rcc rId="200" sId="2">
+    <oc r="O4" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+      </is>
+    </oc>
+    <nc r="O4"/>
+  </rcc>
+  <rcc rId="201" sId="2">
+    <oc r="O5" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+      </is>
+    </oc>
+    <nc r="O5"/>
+  </rcc>
+  <rcc rId="202" sId="2">
+    <oc r="O6" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+      </is>
+    </oc>
+    <nc r="O6"/>
+  </rcc>
+  <rcc rId="203" sId="2">
+    <oc r="O7" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+      </is>
+    </oc>
+    <nc r="O7"/>
+  </rcc>
+  <rcc rId="204" sId="2">
+    <oc r="O8" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+      </is>
+    </oc>
+    <nc r="O8"/>
+  </rcc>
+  <rcc rId="205" sId="2">
+    <oc r="O9" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+      </is>
+    </oc>
+    <nc r="O9"/>
+  </rcc>
+  <rcc rId="206" sId="2">
+    <oc r="O10" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+      </is>
+    </oc>
+    <nc r="O10"/>
+  </rcc>
+  <rcc rId="207" sId="2">
+    <oc r="O11" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+      </is>
+    </oc>
+    <nc r="O11"/>
+  </rcc>
+  <rcc rId="208" sId="2">
+    <oc r="O12" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+      </is>
+    </oc>
+    <nc r="O12"/>
+  </rcc>
+  <rcc rId="209" sId="2">
+    <oc r="O13" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+      </is>
+    </oc>
+    <nc r="O13"/>
+  </rcc>
+  <rcc rId="210" sId="2">
+    <oc r="O14" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+      </is>
+    </oc>
+    <nc r="O14"/>
+  </rcc>
+  <rcc rId="211" sId="2">
+    <oc r="O15" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+      </is>
+    </oc>
+    <nc r="O15"/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="212" sId="2" xfDxf="1" dxf="1">
+    <oc r="O26" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=LIFCL-40-8BG400C --post-process=syn_t.py</t>
+      </is>
+    </oc>
+    <nc r="O26" t="inlineStr">
+      <is>
+        <t>cmd = --post-process=syn_t.py</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="213" sId="2" xfDxf="1" dxf="1">
+    <oc r="O27" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=LIFCL-40-8BG400C --post-process=syn_t.py</t>
+      </is>
+    </oc>
+    <nc r="O27" t="inlineStr">
+      <is>
+        <t>cmd = --post-process=syn_t.py</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="214" sId="2" xfDxf="1" dxf="1">
+    <oc r="O28" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=LIFCL-40-8BG400C --post-process=syn_t.py</t>
+      </is>
+    </oc>
+    <nc r="O28" t="inlineStr">
+      <is>
+        <t>cmd = --post-process=syn_t.py</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="215" sId="2" xfDxf="1" dxf="1">
+    <oc r="O29" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=LIFCL-40-8BG400C --post-process=syn_t.py</t>
+      </is>
+    </oc>
+    <nc r="O29" t="inlineStr">
+      <is>
+        <t>cmd = --post-process=syn_t.py</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="216" sId="2" xfDxf="1" dxf="1">
+    <oc r="O30" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=LIFCL-40-8BG400C --post-process=syn_t.py</t>
+      </is>
+    </oc>
+    <nc r="O30" t="inlineStr">
+      <is>
+        <t>cmd = --post-process=syn_t.py</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="217" sId="2" xfDxf="1" dxf="1">
+    <oc r="O31" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=LIFCL-40-8BG400C --post-process=syn_t.py</t>
+      </is>
+    </oc>
+    <nc r="O31" t="inlineStr">
+      <is>
+        <t>cmd = --post-process=syn_t.py</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="218" sId="2" xfDxf="1" dxf="1">
+    <oc r="O32" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=LIFCL-40-8BG400C --post-process=syn_t.py</t>
+      </is>
+    </oc>
+    <nc r="O32" t="inlineStr">
+      <is>
+        <t>cmd = --post-process=syn_t.py</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="219" sId="2">
+    <oc r="D26" t="inlineStr">
+      <is>
+        <t>MPAR_option_JEDI</t>
+      </is>
+    </oc>
+    <nc r="D26" t="inlineStr">
+      <is>
+        <t>CMD_Command</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="220" sId="2">
+    <oc r="D27" t="inlineStr">
+      <is>
+        <t>MPAR_option_JEDI</t>
+      </is>
+    </oc>
+    <nc r="D27" t="inlineStr">
+      <is>
+        <t>CMD_Command</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="221" sId="2">
+    <oc r="D28" t="inlineStr">
+      <is>
+        <t>MPAR_option_JEDI</t>
+      </is>
+    </oc>
+    <nc r="D28" t="inlineStr">
+      <is>
+        <t>CMD_Command</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="222" sId="2">
+    <oc r="D29" t="inlineStr">
+      <is>
+        <t>MPAR_option_JEDI</t>
+      </is>
+    </oc>
+    <nc r="D29" t="inlineStr">
+      <is>
+        <t>CMD_Command</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="223" sId="2">
+    <oc r="D30" t="inlineStr">
+      <is>
+        <t>MPAR_option_JEDI</t>
+      </is>
+    </oc>
+    <nc r="D30" t="inlineStr">
+      <is>
+        <t>CMD_Command</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="224" sId="2">
+    <oc r="D31" t="inlineStr">
+      <is>
+        <t>MPAR_option_JEDI</t>
+      </is>
+    </oc>
+    <nc r="D31" t="inlineStr">
+      <is>
+        <t>CMD_Command</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="225" sId="2">
+    <oc r="D32" t="inlineStr">
+      <is>
+        <t>MPAR_option_JEDI</t>
+      </is>
+    </oc>
+    <nc r="D32" t="inlineStr">
+      <is>
+        <t>CMD_Command</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="226" sId="2">
+    <oc r="E26" t="inlineStr">
+      <is>
+        <t>MPAR_option_Jedi/Map_option/inferGSR</t>
+      </is>
+    </oc>
+    <nc r="E26" t="inlineStr">
+      <is>
+        <t>05_Map_CMD_Command/011_inferGSR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="227" sId="2">
+    <oc r="E27" t="inlineStr">
+      <is>
+        <t>MPAR_option_Jedi/Map_option/o</t>
+      </is>
+    </oc>
+    <nc r="E27" t="inlineStr">
+      <is>
+        <t>05_Map_CMD_Command/021_o</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="228" sId="2">
+    <oc r="E28" t="inlineStr">
+      <is>
+        <t>MPAR_option_Jedi/Map_option/xref_sig</t>
+      </is>
+    </oc>
+    <nc r="E28" t="inlineStr">
+      <is>
+        <t>05_Map_CMD_Command/041_xref_sig</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="229" sId="2">
+    <oc r="E29" t="inlineStr">
+      <is>
+        <t>MPAR_option_Jedi/Par_option/dh</t>
+      </is>
+    </oc>
+    <nc r="E29" t="inlineStr">
+      <is>
+        <t>06_PAR_CMD_Command/051_s</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="230" sId="2">
+    <oc r="E30" t="inlineStr">
+      <is>
+        <t>MPAR_option_Jedi/Par_option/k</t>
+      </is>
+    </oc>
+    <nc r="E30" t="inlineStr">
+      <is>
+        <t>06_PAR_CMD_Command/081_p</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="231" sId="2">
+    <oc r="E31" t="inlineStr">
+      <is>
+        <t>MPAR_option_Jedi/Par_option/p</t>
+      </is>
+    </oc>
+    <nc r="E31" t="inlineStr">
+      <is>
+        <t>06_PAR_CMD_Command/101_k</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="232" sId="2">
+    <oc r="E32" t="inlineStr">
+      <is>
+        <t>MPAR_option_Jedi/Par_option/s</t>
+      </is>
+    </oc>
+    <nc r="E32" t="inlineStr">
+      <is>
+        <t>06_PAR_CMD_Command/151_dh</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="233" sId="2">
+    <oc r="A3" t="inlineStr">
+      <is>
+        <t>4</t>
+      </is>
+    </oc>
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="234" sId="2">
+    <oc r="A4" t="inlineStr">
+      <is>
+        <t>5</t>
+      </is>
+    </oc>
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="235" sId="2">
+    <oc r="A5" t="inlineStr">
+      <is>
+        <t>6</t>
+      </is>
+    </oc>
+    <nc r="A5" t="inlineStr">
+      <is>
+        <t>3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="236" sId="2">
+    <oc r="A6" t="inlineStr">
+      <is>
+        <t>7</t>
+      </is>
+    </oc>
+    <nc r="A6" t="inlineStr">
+      <is>
+        <t>4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="237" sId="2">
+    <oc r="A7" t="inlineStr">
+      <is>
+        <t>8</t>
+      </is>
+    </oc>
+    <nc r="A7" t="inlineStr">
+      <is>
+        <t>5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="238" sId="2">
+    <oc r="A8" t="inlineStr">
+      <is>
+        <t>9</t>
+      </is>
+    </oc>
+    <nc r="A8" t="inlineStr">
+      <is>
+        <t>6</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="239" sId="2">
+    <oc r="A9" t="inlineStr">
+      <is>
+        <t>10</t>
+      </is>
+    </oc>
+    <nc r="A9" t="inlineStr">
+      <is>
+        <t>7</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="240" sId="2">
+    <oc r="A10" t="inlineStr">
+      <is>
+        <t>11</t>
+      </is>
+    </oc>
+    <nc r="A10" t="inlineStr">
+      <is>
+        <t>8</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="241" sId="2">
+    <oc r="A11" t="inlineStr">
+      <is>
+        <t>12</t>
+      </is>
+    </oc>
+    <nc r="A11" t="inlineStr">
+      <is>
+        <t>9</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="242" sId="2">
+    <oc r="A12" t="inlineStr">
+      <is>
+        <t>13</t>
+      </is>
+    </oc>
+    <nc r="A12" t="inlineStr">
+      <is>
+        <t>10</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="243" sId="2">
+    <oc r="A13" t="inlineStr">
+      <is>
+        <t>14</t>
+      </is>
+    </oc>
+    <nc r="A13" t="inlineStr">
+      <is>
+        <t>11</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="244" sId="2">
+    <oc r="A14" t="inlineStr">
+      <is>
+        <t>15</t>
+      </is>
+    </oc>
+    <nc r="A14" t="inlineStr">
+      <is>
+        <t>12</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="245" sId="2">
+    <oc r="A15" t="inlineStr">
+      <is>
+        <t>16</t>
+      </is>
+    </oc>
+    <nc r="A15" t="inlineStr">
+      <is>
+        <t>13</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="246" sId="2">
+    <oc r="A16" t="inlineStr">
+      <is>
+        <t>17</t>
+      </is>
+    </oc>
+    <nc r="A16" t="inlineStr">
+      <is>
+        <t>14</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="247" sId="2">
+    <oc r="A17" t="inlineStr">
+      <is>
+        <t>18</t>
+      </is>
+    </oc>
+    <nc r="A17" t="inlineStr">
+      <is>
+        <t>15</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="248" sId="2">
+    <oc r="A18" t="inlineStr">
+      <is>
+        <t>19</t>
+      </is>
+    </oc>
+    <nc r="A18" t="inlineStr">
+      <is>
+        <t>16</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="249" sId="2">
+    <oc r="A19" t="inlineStr">
+      <is>
+        <t>20</t>
+      </is>
+    </oc>
+    <nc r="A19" t="inlineStr">
+      <is>
+        <t>17</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="250" sId="2">
+    <oc r="A20" t="inlineStr">
+      <is>
+        <t>21</t>
+      </is>
+    </oc>
+    <nc r="A20" t="inlineStr">
+      <is>
+        <t>18</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="251" sId="2">
+    <oc r="A21" t="inlineStr">
+      <is>
+        <t>22</t>
+      </is>
+    </oc>
+    <nc r="A21" t="inlineStr">
+      <is>
+        <t>19</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="252" sId="2">
+    <oc r="A22" t="inlineStr">
+      <is>
+        <t>23</t>
+      </is>
+    </oc>
+    <nc r="A22" t="inlineStr">
+      <is>
+        <t>20</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="253" sId="2">
+    <oc r="A23" t="inlineStr">
+      <is>
+        <t>24</t>
+      </is>
+    </oc>
+    <nc r="A23" t="inlineStr">
+      <is>
+        <t>21</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="254" sId="2">
+    <oc r="A24" t="inlineStr">
+      <is>
+        <t>25</t>
+      </is>
+    </oc>
+    <nc r="A24" t="inlineStr">
+      <is>
+        <t>22</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="255" sId="2">
+    <oc r="A25" t="inlineStr">
+      <is>
+        <t>26</t>
+      </is>
+    </oc>
+    <nc r="A25" t="inlineStr">
+      <is>
+        <t>23</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="256" sId="2">
+    <oc r="A26" t="inlineStr">
+      <is>
+        <t>27</t>
+      </is>
+    </oc>
+    <nc r="A26" t="inlineStr">
+      <is>
+        <t>24</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="257" sId="2">
+    <oc r="A27" t="inlineStr">
+      <is>
+        <t>28</t>
+      </is>
+    </oc>
+    <nc r="A27" t="inlineStr">
+      <is>
+        <t>25</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="258" sId="2">
+    <oc r="A28" t="inlineStr">
+      <is>
+        <t>29</t>
+      </is>
+    </oc>
+    <nc r="A28" t="inlineStr">
+      <is>
+        <t>26</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="259" sId="2">
+    <oc r="A29" t="inlineStr">
+      <is>
+        <t>30</t>
+      </is>
+    </oc>
+    <nc r="A29" t="inlineStr">
+      <is>
+        <t>27</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="260" sId="2">
+    <oc r="A30" t="inlineStr">
+      <is>
+        <t>31</t>
+      </is>
+    </oc>
+    <nc r="A30" t="inlineStr">
+      <is>
+        <t>28</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="261" sId="2">
+    <oc r="A31" t="inlineStr">
+      <is>
+        <t>32</t>
+      </is>
+    </oc>
+    <nc r="A31" t="inlineStr">
+      <is>
+        <t>29</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="262" sId="2">
+    <oc r="A32" t="inlineStr">
+      <is>
+        <t>33</t>
+      </is>
+    </oc>
+    <nc r="A32" t="inlineStr">
+      <is>
+        <t>30</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="263" sId="1">
+    <oc r="B8" t="inlineStr">
+      <is>
+        <t>radiant=ng2_3</t>
+      </is>
+    </oc>
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>radiant=sd_ng3_2p.18</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="264" sId="1">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>9</t>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>8</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{D4930765-A187-4DFB-85FD-30F76CAE5F18}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_D4930765_A187_4DFB_85FD_30F76CAE5F18_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{D4930765-A187-4DFB-85FD-30F76CAE5F18}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="266" sId="1">
+    <oc r="B3" t="inlineStr">
+      <is>
+        <t>impl_01_mapar_engine_v2.00</t>
+      </is>
+    </oc>
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>kfang_impl_01_mapar_engine_EIT</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="267" sId="2" xfDxf="1" dxf="1">
+    <nc r="O3" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="268" sId="2" xfDxf="1" dxf="1">
+    <nc r="O4" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="269" sId="2" xfDxf="1" dxf="1">
+    <nc r="O5" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="270" sId="2" xfDxf="1" dxf="1">
+    <nc r="O6" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="271" sId="2" xfDxf="1" dxf="1">
+    <nc r="O7" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="272" sId="2" xfDxf="1" dxf="1">
+    <nc r="O8" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="273" sId="2" xfDxf="1" dxf="1">
+    <nc r="O9" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="274" sId="2" xfDxf="1" dxf="1">
+    <nc r="O10" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="275" sId="2" xfDxf="1" dxf="1">
+    <nc r="O11" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="276" sId="2" xfDxf="1" dxf="1">
+    <nc r="O12" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="277" sId="2" xfDxf="1" dxf="1">
+    <nc r="O13" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="278" sId="2">
+    <nc r="O14" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="279" sId="2">
+    <nc r="O15" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="1" sId="1">
@@ -6297,6 +7489,393 @@
     <formula>case!$A$2:$AD$2</formula>
   </rdn>
   <rcv guid="{935BDBD9-B387-4985-B478-6F8B21CA0B09}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="280" sId="2" xfDxf="1" dxf="1">
+    <oc r="O26" t="inlineStr">
+      <is>
+        <t>cmd = --post-process=syn_t.py</t>
+      </is>
+    </oc>
+    <nc r="O26" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --post-process=syn_t.py</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="281" sId="2" xfDxf="1" dxf="1">
+    <oc r="O27" t="inlineStr">
+      <is>
+        <t>cmd = --post-process=syn_t.py</t>
+      </is>
+    </oc>
+    <nc r="O27" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --post-process=syn_t.py</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="282" sId="2" xfDxf="1" dxf="1">
+    <oc r="O28" t="inlineStr">
+      <is>
+        <t>cmd = --post-process=syn_t.py</t>
+      </is>
+    </oc>
+    <nc r="O28" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --post-process=syn_t.py</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="283" sId="2" xfDxf="1" dxf="1">
+    <oc r="O29" t="inlineStr">
+      <is>
+        <t>cmd = --post-process=syn_t.py</t>
+      </is>
+    </oc>
+    <nc r="O29" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --post-process=syn_t.py</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="284" sId="2" xfDxf="1" dxf="1">
+    <oc r="O30" t="inlineStr">
+      <is>
+        <t>cmd = --post-process=syn_t.py</t>
+      </is>
+    </oc>
+    <nc r="O30" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --post-process=syn_t.py</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="285" sId="2" xfDxf="1" dxf="1">
+    <oc r="O31" t="inlineStr">
+      <is>
+        <t>cmd = --post-process=syn_t.py</t>
+      </is>
+    </oc>
+    <nc r="O31" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --post-process=syn_t.py</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="286" sId="2" xfDxf="1" dxf="1">
+    <oc r="O32" t="inlineStr">
+      <is>
+        <t>cmd = --post-process=syn_t.py</t>
+      </is>
+    </oc>
+    <nc r="O32" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --post-process=syn_t.py</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{D4930765-A187-4DFB-85FD-30F76CAE5F18}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_D4930765_A187_4DFB_85FD_30F76CAE5F18_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+    <oldFormula>case!$A$2:$AD$2</oldFormula>
+  </rdn>
+  <rcv guid="{D4930765-A187-4DFB-85FD-30F76CAE5F18}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="288" sId="2" xfDxf="1" dxf="1">
+    <oc r="O3" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </oc>
+    <nc r="O3" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --run-export-bitstream</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="289" sId="2" xfDxf="1" dxf="1">
+    <oc r="O4" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </oc>
+    <nc r="O4" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --run-export-bitstream</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="290" sId="2" xfDxf="1" dxf="1">
+    <oc r="O5" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </oc>
+    <nc r="O5" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --run-export-bitstream</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="291" sId="2" xfDxf="1" dxf="1">
+    <oc r="O6" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </oc>
+    <nc r="O6" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --run-export-bitstream</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="292" sId="2" xfDxf="1" dxf="1">
+    <oc r="O7" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </oc>
+    <nc r="O7" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --run-export-bitstream</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="293" sId="2" xfDxf="1" dxf="1">
+    <oc r="O8" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </oc>
+    <nc r="O8" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --run-export-bitstream</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="294" sId="2" xfDxf="1" dxf="1">
+    <oc r="O9" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </oc>
+    <nc r="O9" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --run-export-bitstream</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="295" sId="2" xfDxf="1" dxf="1">
+    <oc r="O10" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </oc>
+    <nc r="O10" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --run-export-bitstream</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="296" sId="2" xfDxf="1" dxf="1">
+    <oc r="O11" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </oc>
+    <nc r="O11" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --run-export-bitstream</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="297" sId="2" xfDxf="1" dxf="1">
+    <oc r="O12" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </oc>
+    <nc r="O12" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --run-export-bitstream</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="298" sId="2" xfDxf="1" dxf="1">
+    <oc r="O13" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </oc>
+    <nc r="O13" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --run-export-bitstream</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="299" sId="2" xfDxf="1" dxf="1">
+    <oc r="O14" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </oc>
+    <nc r="O14" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --run-export-bitstream</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="300" sId="2" xfDxf="1" dxf="1">
+    <oc r="O15" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf</t>
+      </is>
+    </oc>
+    <nc r="O15" t="inlineStr">
+      <is>
+        <t>cmd = --check-conf=impl.conf --run-export-bitstream</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="301" sId="1">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>8</t>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>9</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="302" sId="1">
+    <oc r="B3" t="inlineStr">
+      <is>
+        <t>kfang_impl_01_mapar_engine_EIT</t>
+      </is>
+    </oc>
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>impl_01_mapar_engine_v2.00</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="303" sId="1">
+    <oc r="B3" t="inlineStr">
+      <is>
+        <t>impl_01_mapar_engine_v2.00</t>
+      </is>
+    </oc>
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>impl_01_mapar_engine_v2.01</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -6336,6 +7915,465 @@
     <nc r="B3" t="inlineStr">
       <is>
         <t>impl_01_mapar_engine_v2.00</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="165" sId="2" ref="A3:XFD3" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A3:XFD3" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <protection locked="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2">
+      <nc r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="D3" t="inlineStr">
+        <is>
+          <t>HDL_physical_attribute</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="E3" t="inlineStr">
+        <is>
+          <t>HDL_physical_attribute/REGION</t>
+        </is>
+      </nc>
+    </rcc>
+    <rfmt sheetId="2" sqref="L3" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="0" formatCode="General"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2">
+      <nc r="O3" t="inlineStr">
+        <is>
+          <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="166" sId="2" ref="A3:XFD3" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A3:XFD3" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <protection locked="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2">
+      <nc r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="D3" t="inlineStr">
+        <is>
+          <t>HDL_physical_attribute</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="E3" t="inlineStr">
+        <is>
+          <t>HDL_physical_attribute/SLEWRATE</t>
+        </is>
+      </nc>
+    </rcc>
+    <rfmt sheetId="2" sqref="L3" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="0" formatCode="General"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2">
+      <nc r="O3" t="inlineStr">
+        <is>
+          <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="167" sId="2" ref="A3:XFD3" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A3:XFD3" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <protection locked="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2">
+      <nc r="A3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="D3" t="inlineStr">
+        <is>
+          <t>HDL_physical_attribute</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="E3" t="inlineStr">
+        <is>
+          <t>HDL_physical_attribute/UGROUP</t>
+        </is>
+      </nc>
+    </rcc>
+    <rfmt sheetId="2" sqref="L3" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="0" formatCode="General"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2">
+      <nc r="O3" t="inlineStr">
+        <is>
+          <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rcc rId="168" sId="2">
+    <oc r="E5" t="inlineStr">
+      <is>
+        <t>MPAR_option/Map_option/Path_2</t>
+      </is>
+    </oc>
+    <nc r="E5" t="inlineStr">
+      <is>
+        <t>01_Map_Option_Strategy/251_Speed_for_Hold_Analysis</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="169" sId="2">
+    <oc r="E6" t="inlineStr">
+      <is>
+        <t>MPAR_option/Map_option/Signal_cross</t>
+      </is>
+    </oc>
+    <nc r="E6" t="inlineStr">
+      <is>
+        <t>01_Map_Option_Strategy/201_Number_of_End_Points</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="170" sId="2">
+    <oc r="E7" t="inlineStr">
+      <is>
+        <t>MPAR_option/Map_option/symbol_cross</t>
+      </is>
+    </oc>
+    <nc r="E7" t="inlineStr">
+      <is>
+        <t>01_Map_Option_Strategy/221_Number_of_Paths_Per_EndPoint</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="171" sId="2">
+    <oc r="E8" t="inlineStr">
+      <is>
+        <t>MPAR_option/Map_option/unclip</t>
+      </is>
+    </oc>
+    <nc r="E8" t="inlineStr">
+      <is>
+        <t>01_Map_Option_Strategy/251_Speed_for_Hold_Analysis</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="172" sId="2">
+    <oc r="E3" t="inlineStr">
+      <is>
+        <t>MPAR_option/Map_option/Endpoint_2</t>
+      </is>
+    </oc>
+    <nc r="E3" t="inlineStr">
+      <is>
+        <t>01_Map_Option_Strategy/021_Report_Signal_Cross_Reference</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="173" sId="2">
+    <oc r="E4" t="inlineStr">
+      <is>
+        <t>MPAR_option/Map_option/hold_analyze</t>
+      </is>
+    </oc>
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>01_Map_Option_Strategy/031_Report_Symbol_Cross_Reference</t>
+      </is>
+    </nc>
+  </rcc>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_D4930765_A187_4DFB_85FD_30F76CAE5F18_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+  </rdn>
+  <rcv guid="{D4930765-A187-4DFB-85FD-30F76CAE5F18}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="175" sId="2">
+    <oc r="E5" t="inlineStr">
+      <is>
+        <t>01_Map_Option_Strategy/251_Speed_for_Hold_Analysis</t>
+      </is>
+    </oc>
+    <nc r="E5" t="inlineStr">
+      <is>
+        <t>01_Map_Option_Strategy/201_Number_of_End_Points</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="176" sId="2">
+    <oc r="E6" t="inlineStr">
+      <is>
+        <t>01_Map_Option_Strategy/201_Number_of_End_Points</t>
+      </is>
+    </oc>
+    <nc r="E6" t="inlineStr">
+      <is>
+        <t>01_Map_Option_Strategy/221_Number_of_Paths_Per_EndPoint</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="177" sId="2">
+    <oc r="E7" t="inlineStr">
+      <is>
+        <t>01_Map_Option_Strategy/221_Number_of_Paths_Per_EndPoint</t>
+      </is>
+    </oc>
+    <nc r="E7" t="inlineStr">
+      <is>
+        <t>01_Map_Option_Strategy/251_Speed_for_Hold_Analysis</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="178" sId="2">
+    <oc r="E8" t="inlineStr">
+      <is>
+        <t>01_Map_Option_Strategy/251_Speed_for_Hold_Analysis</t>
+      </is>
+    </oc>
+    <nc r="E8" t="inlineStr">
+      <is>
+        <t>01_Map_Option_Strategy/273_Timing_Analysis_Options_Setup_Hold</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="179" sId="2">
+    <oc r="E9" t="inlineStr">
+      <is>
+        <t>MPAR_option/PAR_option/diable_hold</t>
+      </is>
+    </oc>
+    <nc r="E9" t="inlineStr">
+      <is>
+        <t>02_PAR_Option_Strategy/001_Disable_Auto_Hold_Timing_Correction</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="180" sId="2">
+    <oc r="E10" t="inlineStr">
+      <is>
+        <t>MPAR_option/PAR_option/disable_TD</t>
+      </is>
+    </oc>
+    <nc r="E10" t="inlineStr">
+      <is>
+        <t>02_PAR_Option_Strategy/011_Disable_Timing_Driven</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="181" sId="2">
+    <oc r="D3" t="inlineStr">
+      <is>
+        <t>MPAR_option</t>
+      </is>
+    </oc>
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>Strategy</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="182" sId="2">
+    <oc r="D4" t="inlineStr">
+      <is>
+        <t>MPAR_option</t>
+      </is>
+    </oc>
+    <nc r="D4" t="inlineStr">
+      <is>
+        <t>Strategy</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="183" sId="2">
+    <oc r="D5" t="inlineStr">
+      <is>
+        <t>MPAR_option</t>
+      </is>
+    </oc>
+    <nc r="D5" t="inlineStr">
+      <is>
+        <t>Strategy</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="184" sId="2">
+    <oc r="D6" t="inlineStr">
+      <is>
+        <t>MPAR_option</t>
+      </is>
+    </oc>
+    <nc r="D6" t="inlineStr">
+      <is>
+        <t>Strategy</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="185" sId="2">
+    <oc r="D7" t="inlineStr">
+      <is>
+        <t>MPAR_option</t>
+      </is>
+    </oc>
+    <nc r="D7" t="inlineStr">
+      <is>
+        <t>Strategy</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="186" sId="2">
+    <oc r="D8" t="inlineStr">
+      <is>
+        <t>MPAR_option</t>
+      </is>
+    </oc>
+    <nc r="D8" t="inlineStr">
+      <is>
+        <t>Strategy</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="187" sId="2">
+    <oc r="D9" t="inlineStr">
+      <is>
+        <t>MPAR_option</t>
+      </is>
+    </oc>
+    <nc r="D9" t="inlineStr">
+      <is>
+        <t>Strategy</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="188" sId="2">
+    <oc r="D10" t="inlineStr">
+      <is>
+        <t>MPAR_option</t>
+      </is>
+    </oc>
+    <nc r="D10" t="inlineStr">
+      <is>
+        <t>Strategy</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="189" sId="2">
+    <oc r="D11" t="inlineStr">
+      <is>
+        <t>MPAR_option</t>
+      </is>
+    </oc>
+    <nc r="D11" t="inlineStr">
+      <is>
+        <t>Strategy</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="190" sId="2">
+    <oc r="D12" t="inlineStr">
+      <is>
+        <t>MPAR_option</t>
+      </is>
+    </oc>
+    <nc r="D12" t="inlineStr">
+      <is>
+        <t>Strategy</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="191" sId="2">
+    <oc r="D13" t="inlineStr">
+      <is>
+        <t>MPAR_option</t>
+      </is>
+    </oc>
+    <nc r="D13" t="inlineStr">
+      <is>
+        <t>Strategy</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="192" sId="2">
+    <oc r="E11" t="inlineStr">
+      <is>
+        <t>MPAR_option/PAR_option/endpoint_3</t>
+      </is>
+    </oc>
+    <nc r="E11" t="inlineStr">
+      <is>
+        <t>02_PAR_Option_Strategy/201_Number_of_End_Points</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="193" sId="2">
+    <oc r="E12" t="inlineStr">
+      <is>
+        <t>MPAR_option/PAR_option/endpoint_5</t>
+      </is>
+    </oc>
+    <nc r="E12" t="inlineStr">
+      <is>
+        <t>02_PAR_Option_Strategy/221_Number_of_Paths_Per_EndPoint</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="194" sId="2">
+    <oc r="E13" t="inlineStr">
+      <is>
+        <t>MPAR_option/PAR_option/Timing_option</t>
+      </is>
+    </oc>
+    <nc r="E13" t="inlineStr">
+      <is>
+        <t>02_PAR_Option_Strategy/273_Timing_Analysis_Options_Setup_Hold</t>
       </is>
     </nc>
   </rcc>
@@ -6424,6 +8462,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6459,6 +8514,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6634,12 +8706,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -6669,7 +8739,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6703,7 +8773,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6724,43 +8794,48 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
+    <customSheetView guid="{D4930765-A187-4DFB-85FD-30F76CAE5F18}">
+      <selection activeCell="B2" sqref="B2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{935BDBD9-B387-4985-B478-6F8B21CA0B09}">
       <selection activeCell="D24" sqref="D24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <selection activeCell="H9" sqref="H9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6925,13 +9000,13 @@
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6939,13 +9014,13 @@
         <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -6953,13 +9028,13 @@
         <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -6967,13 +9042,13 @@
         <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -6981,13 +9056,13 @@
         <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -6995,13 +9070,13 @@
         <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -7009,13 +9084,13 @@
         <v>266</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -7023,13 +9098,13 @@
         <v>267</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -7037,13 +9112,13 @@
         <v>262</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -7051,13 +9126,13 @@
         <v>268</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -7065,13 +9140,13 @@
         <v>269</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -7079,13 +9154,13 @@
         <v>270</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -7093,13 +9168,13 @@
         <v>271</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -7107,13 +9182,13 @@
         <v>272</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -7121,13 +9196,13 @@
         <v>273</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -7135,13 +9210,13 @@
         <v>274</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -7149,13 +9224,13 @@
         <v>275</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -7163,13 +9238,13 @@
         <v>276</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -7177,13 +9252,13 @@
         <v>277</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -7191,13 +9266,13 @@
         <v>278</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -7205,13 +9280,10 @@
         <v>279</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -7219,13 +9291,10 @@
         <v>280</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -7233,13 +9302,10 @@
         <v>281</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -7247,10 +9313,13 @@
         <v>282</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>320</v>
+      <c r="O26" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -7258,10 +9327,13 @@
         <v>283</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -7269,10 +9341,13 @@
         <v>284</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -7280,13 +9355,13 @@
         <v>285</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -7294,13 +9369,13 @@
         <v>286</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="O30" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -7308,13 +9383,13 @@
         <v>287</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -7322,88 +9397,53 @@
         <v>288</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y+CBG6/YKaQ6HsaQYTqaGGAc9K7SdI4KYNN5n42I5k04yiTX0Fn8xQwrYnwNAtl9mwRmr3UcHPCrpySoPgBJNA==" saltValue="2QS/OSgjoJCpqDc5Ec8Idw==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A2:AD2"/>
+  <autoFilter ref="A2:AD2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
+    <customSheetView guid="{D4930765-A187-4DFB-85FD-30F76CAE5F18}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A2:AD2" xr:uid="{E33BA2B8-63BD-40A2-B719-00B2009D9951}"/>
+    </customSheetView>
     <customSheetView guid="{935BDBD9-B387-4985-B478-6F8B21CA0B09}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:AD2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A2:AD2" xr:uid="{FEBA112C-B54C-43DD-8FB9-4F0B42F1D42F}"/>
     </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A2:Y2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A2:Y2" xr:uid="{7F9FEC7E-735D-45D8-80AA-D346CB15336C}"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:Y2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A2:Y2" xr:uid="{103F00C0-770B-4FEA-85FB-212C16D64B20}"/>
     </customSheetView>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A2:AD2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+      <autoFilter ref="A2:AD2" xr:uid="{EC3DD8A9-FD29-4D41-9A11-A9CA47927F77}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -7412,61 +9452,61 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1 W1:AA1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1 W1:AA1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:V1 A1 C1:E1 G1:H1">
-      <formula1>$F$31:$J$31</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:V1 G1:H1 C1:E1 A1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>$F$28:$J$28</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>description!$F$140:$H$140</xm:f>
           </x14:formula1>
           <xm:sqref>AB1:AB1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>description!$F$141:$H$141</xm:f>
           </x14:formula1>
           <xm:sqref>AC1:AC1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>description!$F$122:$H$122</xm:f>
           </x14:formula1>
           <xm:sqref>K1:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>description!$F$121:$K$121</xm:f>
           </x14:formula1>
           <xm:sqref>J1:J1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>description!$F$123:$H$123</xm:f>
           </x14:formula1>
           <xm:sqref>L1:L1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>description!$E$113:$F$113</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>description!$F$117:$H$117</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>description!$F$120:$K$120</xm:f>
           </x14:formula1>
@@ -7479,7 +9519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N241"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -9957,6 +11997,11 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ap+vydlQsTivses2kTOZJOfe+E+ofk18ovQVkbwX/cy/2QzQqNYlkd6ZRwhTqYv60tXLJj9O4rjHfeOPlaqbDA==" saltValue="NIz07f4XZ+x9XJy8gC1img==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
+    <customSheetView guid="{D4930765-A187-4DFB-85FD-30F76CAE5F18}" scale="115">
+      <selection activeCell="C180" sqref="C180"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
     <customSheetView guid="{935BDBD9-B387-4985-B478-6F8B21CA0B09}" scale="115">
       <selection activeCell="C180" sqref="C180"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10028,7 +12073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10042,6 +12087,9 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{D4930765-A187-4DFB-85FD-30F76CAE5F18}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{935BDBD9-B387-4985-B478-6F8B21CA0B09}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>

--- a/tmp_client/doc/TMP_EIT_suites/radiant/impl_01_mapar_engine.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/impl_01_mapar_engine.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{F6466A3E-E8D6-4C17-8754-AC34666D29F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{19FD41B7-6767-4BD4-B7B1-CC394A76C821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BBPw5sjxCCUVqKqDFh1VvlGl+6jBsyEv58ubpDIjFduKT4EttifNtZLgNn2j4jGi/bvDsFNRyO0+XWiClC3JHw==" workbookSaltValue="FQsz7bLsuDdqgfH6Nya7QA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -1050,13 +1050,13 @@
     <t>06_PAR_CMD_Command/151_dh</t>
   </si>
   <si>
-    <t>radiant=sd_ng3_2p.18</t>
-  </si>
-  <si>
     <t>cmd = --check-conf=impl.conf --post-process=syn_t.py</t>
   </si>
   <si>
     <t>cmd = --check-conf=impl.conf --run-export-bitstream</t>
+  </si>
+  <si>
+    <t>radiant=ng2022</t>
   </si>
   <si>
     <t>impl_01_mapar_engine_v2.01</t>
@@ -5000,7 +5000,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{269D2C2A-931E-45DB-A665-801146CA6E48}" diskRevisions="1" revisionId="303" version="24">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BF04477F-E450-46DA-9380-B089DC7A40AD}" diskRevisions="1" revisionId="304" version="25">
   <header guid="{EF406D44-8062-40DE-A000-69E56EC874B5}" dateTime="2020-10-15T13:42:26" maxSheetId="5" userName="Jason Wang" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -5185,7 +5185,15 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{269D2C2A-931E-45DB-A665-801146CA6E48}" dateTime="2022-07-08T16:31:17" maxSheetId="5" userName="Jason Wang" r:id="rId24" minRId="303">
+  <header guid="{157B790F-5B69-4EC0-98B8-87F5A8B8B29D}" dateTime="2022-08-17T09:45:21" maxSheetId="5" userName="Jason Wang" r:id="rId24" minRId="303">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BF04477F-E450-46DA-9380-B089DC7A40AD}" dateTime="2022-08-17T09:57:10" maxSheetId="5" userName="Jason Wang" r:id="rId25" minRId="304">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -7865,6 +7873,23 @@
 <file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="303" sId="1">
+    <oc r="B8" t="inlineStr">
+      <is>
+        <t>radiant=sd_ng3_2p.18</t>
+      </is>
+    </oc>
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>radiant=ng2022</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="304" sId="1">
     <oc r="B3" t="inlineStr">
       <is>
         <t>impl_01_mapar_engine_v2.00</t>
@@ -8709,9 +8734,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="2" customWidth="1"/>
@@ -8773,7 +8800,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8838,36 +8865,36 @@
       <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" customWidth="1"/>
     <col min="8" max="8" width="37" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="38" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="30.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="13" style="2" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.44140625" style="2" customWidth="1"/>
     <col min="21" max="21" width="11" style="2" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" style="2" customWidth="1"/>
     <col min="23" max="28" width="9" style="2"/>
-    <col min="29" max="29" width="10.140625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="10.109375" style="2" customWidth="1"/>
     <col min="30" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="A1" s="67" t="s">
         <v>15</v>
       </c>
@@ -8903,7 +8930,7 @@
       <c r="AC1" s="70"/>
       <c r="AD1" s="70"/>
     </row>
-    <row r="2" spans="1:30" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:30" s="3" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -8995,7 +9022,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75" thickTop="1">
+    <row r="3" spans="1:30" ht="15" thickTop="1">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -9006,7 +9033,7 @@
         <v>306</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -9020,7 +9047,7 @@
         <v>307</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -9034,7 +9061,7 @@
         <v>303</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -9048,7 +9075,7 @@
         <v>304</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -9062,7 +9089,7 @@
         <v>305</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -9076,7 +9103,7 @@
         <v>308</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -9090,7 +9117,7 @@
         <v>309</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -9104,7 +9131,7 @@
         <v>310</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -9118,7 +9145,7 @@
         <v>312</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -9132,7 +9159,7 @@
         <v>313</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -9146,7 +9173,7 @@
         <v>314</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -9160,7 +9187,7 @@
         <v>315</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -9174,7 +9201,7 @@
         <v>316</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -9319,7 +9346,7 @@
         <v>319</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -9333,7 +9360,7 @@
         <v>320</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -9347,7 +9374,7 @@
         <v>321</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -9361,7 +9388,7 @@
         <v>322</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -9375,7 +9402,7 @@
         <v>323</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -9389,7 +9416,7 @@
         <v>324</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -9403,7 +9430,7 @@
         <v>325</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -9415,35 +9442,35 @@
       <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:AD2" xr:uid="{E33BA2B8-63BD-40A2-B719-00B2009D9951}"/>
+      <autoFilter ref="A2:AD2" xr:uid="{D841A358-E5AD-44AB-85C7-4276A4896879}"/>
     </customSheetView>
     <customSheetView guid="{935BDBD9-B387-4985-B478-6F8B21CA0B09}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A2:AD2" xr:uid="{FEBA112C-B54C-43DD-8FB9-4F0B42F1D42F}"/>
+      <autoFilter ref="A2:AD2" xr:uid="{A4C59B05-55B6-4C6B-AAE9-A6BDF06ECDA8}"/>
     </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:Y2" xr:uid="{7F9FEC7E-735D-45D8-80AA-D346CB15336C}"/>
+      <autoFilter ref="A2:Y2" xr:uid="{8BE20075-02B1-46FA-916A-E011DF396F51}"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A2:Y2" xr:uid="{103F00C0-770B-4FEA-85FB-212C16D64B20}"/>
+      <autoFilter ref="A2:Y2" xr:uid="{4F7FABC4-6E61-4742-83A2-ACD5EF7DCE59}"/>
     </customSheetView>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A2:AD2" xr:uid="{EC3DD8A9-FD29-4D41-9A11-A9CA47927F77}"/>
+      <autoFilter ref="A2:AD2" xr:uid="{F041957E-A77B-4626-9ED4-C42AFA113BFC}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -9526,18 +9553,18 @@
       <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="19" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="15" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" style="6" customWidth="1"/>
     <col min="6" max="6" width="32" style="6" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="28.109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -9560,7 +9587,7 @@
     <row r="107" spans="1:14" ht="12.75" customHeight="1"/>
     <row r="108" spans="1:14" ht="12.75" customHeight="1"/>
     <row r="109" spans="1:14" ht="12.75" customHeight="1"/>
-    <row r="110" spans="1:14" ht="15.75" thickBot="1">
+    <row r="110" spans="1:14" ht="15" thickBot="1">
       <c r="A110" s="6" t="s">
         <v>81</v>
       </c>
@@ -9568,7 +9595,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="15.75" thickBot="1">
+    <row r="111" spans="1:14" ht="15" thickBot="1">
       <c r="A111" s="9" t="s">
         <v>83</v>
       </c>
@@ -10396,7 +10423,7 @@
       <c r="M141" s="18"/>
       <c r="N141" s="19"/>
     </row>
-    <row r="142" spans="1:14" ht="15.75" thickBot="1">
+    <row r="142" spans="1:14" ht="15" thickBot="1">
       <c r="A142" s="20" t="s">
         <v>122</v>
       </c>
@@ -10420,7 +10447,7 @@
       <c r="M142" s="21"/>
       <c r="N142" s="22"/>
     </row>
-    <row r="145" spans="1:8" ht="15.75" thickBot="1">
+    <row r="145" spans="1:8" ht="15" thickBot="1">
       <c r="A145" s="6" t="s">
         <v>123</v>
       </c>
@@ -11038,7 +11065,7 @@
       </c>
       <c r="H172" s="16"/>
     </row>
-    <row r="173" spans="1:8" ht="90">
+    <row r="173" spans="1:8" ht="86.4">
       <c r="A173" s="26">
         <v>27</v>
       </c>
@@ -11132,7 +11159,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15.75" thickBot="1">
+    <row r="177" spans="1:8" ht="15" thickBot="1">
       <c r="A177" s="31">
         <v>31</v>
       </c>
@@ -11288,7 +11315,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="15.75" thickBot="1">
+    <row r="184" spans="1:8" ht="15" thickBot="1">
       <c r="A184" s="35">
         <v>38</v>
       </c>
@@ -11328,7 +11355,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15.75" thickBot="1">
+    <row r="197" spans="1:7" ht="15" thickBot="1">
       <c r="A197" s="6" t="s">
         <v>207</v>
       </c>
@@ -11602,7 +11629,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15.75" thickBot="1">
+    <row r="214" spans="1:7" ht="15" thickBot="1">
       <c r="A214" s="96"/>
       <c r="B214" s="97"/>
       <c r="C214" s="97" t="s">
@@ -11636,7 +11663,7 @@
       <c r="D217" s="37"/>
       <c r="E217" s="37"/>
     </row>
-    <row r="218" spans="1:7" ht="15.75" thickBot="1">
+    <row r="218" spans="1:7" ht="15" thickBot="1">
       <c r="A218" s="6" t="s">
         <v>231</v>
       </c>
@@ -11644,7 +11671,7 @@
       <c r="D218" s="37"/>
       <c r="E218" s="37"/>
     </row>
-    <row r="219" spans="1:7" ht="15.75" thickBot="1">
+    <row r="219" spans="1:7" ht="15" thickBot="1">
       <c r="A219" s="45" t="s">
         <v>232</v>
       </c>
@@ -11732,12 +11759,12 @@
     <row r="224" spans="1:7">
       <c r="C224" s="51"/>
     </row>
-    <row r="226" spans="1:7" ht="15.75" thickBot="1">
+    <row r="226" spans="1:7" ht="15" thickBot="1">
       <c r="A226" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="15.75" thickBot="1">
+    <row r="227" spans="1:7" ht="15" thickBot="1">
       <c r="A227" s="9" t="s">
         <v>243</v>
       </c>
@@ -11977,7 +12004,7 @@
       <c r="F240" s="64"/>
       <c r="G240" s="43"/>
     </row>
-    <row r="241" spans="1:7" ht="15.75" thickBot="1">
+    <row r="241" spans="1:7" ht="15" thickBot="1">
       <c r="A241" s="65">
         <v>44118</v>
       </c>
@@ -12078,7 +12105,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
